--- a/QNIA/data/QNIA_Measures.xlsx
+++ b/QNIA/data/QNIA_Measures.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,262 +489,274 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>GPSA</t>
+          <t>GCUMSA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GPS</t>
+          <t>GCU</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>GYSA</t>
+          <t>GPSA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GYS</t>
+          <t>GPS</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HCPCARSA</t>
+          <t>GYSA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HCS</t>
+          <t>GYS</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HRS</t>
+          <t>HCPCARSA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HRS</t>
+          <t>HCS</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>HRSSA</t>
+          <t>HRS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HSS</t>
+          <t>HRS</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>HVPVOBARSA</t>
+          <t>HRSSA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HVS</t>
+          <t>HSS</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>JOB</t>
+          <t>HVPVOBARSA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>JOB</t>
+          <t>HVS</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>JOBSA</t>
+          <t>JOB</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>JOS</t>
+          <t>JOB</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>LNBARSA</t>
+          <t>JOBSA</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LNS</t>
+          <t>JOS</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>LNBQR</t>
+          <t>LNBARSA</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LNQ</t>
+          <t>LNS</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>LNBQRSA</t>
+          <t>LNBQR</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LQS</t>
+          <t>LNQ</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>LNBQRSA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>LQS</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>PERSA</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PES</t>
+          <t>PER</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>VIXNB</t>
+          <t>PERSA</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>VIB</t>
+          <t>PES</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>VIXNBSA</t>
+          <t>VIXNB</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>VIN</t>
+          <t>VIB</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>VIXOBSA</t>
+          <t>VIXNBSA</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>VIO</t>
+          <t>VIN</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>VNBAR</t>
+          <t>VIXOBSA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>VNR</t>
+          <t>VIO</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>VNBARSA</t>
+          <t>VNBAR</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>VNS</t>
+          <t>VNR</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>VNBQR</t>
+          <t>VNBARSA</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>VQR</t>
+          <t>VNS</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>VNBQRSA</t>
+          <t>VNBQR</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>VQS</t>
+          <t>VQR</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>VOBARSA</t>
+          <t>VNBQRSA</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>VOS</t>
+          <t>VQS</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
+          <t>VOBARSA</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>VOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
           <t>VPVOBARSA</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>VPS</t>
         </is>
